--- a/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>3,91</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 11,59</t>
+          <t>-7,45; 20,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,37</t>
+          <t>-2,52; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,32</t>
+          <t>-3,32; 11,55</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>35,08%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,37; 144,27</t>
+          <t>-49,14; 203,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 58,94</t>
+          <t>-23,43; 145,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 65,9</t>
+          <t>-29,1; 132,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,99</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 16,91</t>
+          <t>-8,79; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 5,27</t>
+          <t>-8,28; 7,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,73</t>
+          <t>-6,67; 4,42</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>-17,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>-7,34%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 234,04</t>
+          <t>-61,45; 73,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 42,98</t>
+          <t>-41,53; 65,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 75,46</t>
+          <t>-41,18; 40,62</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-3,35</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 15,01</t>
+          <t>-7,29; 19,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 5,36</t>
+          <t>-29,56; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 7,1</t>
+          <t>-15,56; 8,07</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>116,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,77%</t>
+          <t>-51,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>-25,34%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,91; 890,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,85; 66,09</t>
+          <t>-88,1; 59,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 87,97</t>
+          <t>-78,71; 126,45</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,39</t>
+          <t>-5,02; 11,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,49</t>
+          <t>-4,35; 4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,53</t>
+          <t>-2,7; 6,05</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 125,01</t>
+          <t>-36,74; 125,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 20,6</t>
+          <t>-28,26; 46,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 42,71</t>
+          <t>-19,68; 56,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.176322256498137</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.015265163672329</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.641606177018568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 20,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 8,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 11,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.938908489012469</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.869311716918653</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.003423602984973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>38,21%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>30,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>35,08%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.23036617275875</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.97073369613687</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.79912209359724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-49,14; 203,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,43; 145,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-29,1; 132,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2164575104052446</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.4197775260875359</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3055813400240371</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5268539177239659</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2527196581624589</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2794064332387338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 5,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 7,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 4,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.847887878394059</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.568088785322789</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.149057715294995</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-17,68%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,34%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.466330906097847</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8794807975829211</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.688323808825712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-61,45; 73,93</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-41,53; 65,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-41,18; 40,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.48770460304932</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.64052434016028</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.628591513556324</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.081040753208273</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.400770423524083</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.999333566958545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 19,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-29,56; 5,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; 8,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.2074206153197012</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05293143717787349</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1171563025836506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>116,69%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-51,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-25,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.6730411790603976</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4083370830912119</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4307050559296636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-88,1; 59,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-78,71; 126,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.8575403319996246</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.6300108666833887</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3569685048662886</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.790231948859493</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-10.74015856198715</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.906572882040348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 11,55</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 4,69</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 6,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.24970234441432</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-27.28730164338005</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-15.17387936175983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>19,52%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.52044269376535</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.492496002264054</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.968445183291134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-36,74; 125,51</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-28,26; 46,3</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 56,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.159086167670133</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.4738203777065874</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2162953035945766</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.8688886961214609</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.7631652283304615</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>0.7642706925587539</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.51711544628145</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.10021233330442</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5469691156891526</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.803401045520305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.849498894134622</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.811070473349687</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.810751364380328</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.465078332489407</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.432393504330753</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.845682538848326</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.08911902497042491</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03985168650465781</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.06141765675769723</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4306394246489295</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2984384088064782</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2453737157470392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.9014200556223472</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4742820796470266</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.4261625651825685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +981,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
